--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pf4-Procr.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H2">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J2">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.58909666666667</v>
+        <v>8.306580666666667</v>
       </c>
       <c r="N2">
-        <v>31.76729</v>
+        <v>24.919742</v>
       </c>
       <c r="O2">
-        <v>0.4429067747958885</v>
+        <v>0.4741050717515609</v>
       </c>
       <c r="P2">
-        <v>0.4429067747958886</v>
+        <v>0.4741050717515609</v>
       </c>
       <c r="Q2">
-        <v>6.842893107331111</v>
+        <v>5.085809229855111</v>
       </c>
       <c r="R2">
-        <v>61.58603796598</v>
+        <v>45.772283068696</v>
       </c>
       <c r="S2">
-        <v>0.001828382354256868</v>
+        <v>0.003213991742214347</v>
       </c>
       <c r="T2">
-        <v>0.001828382354256868</v>
+        <v>0.003213991742214347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H3">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J3">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.347042</v>
       </c>
       <c r="O3">
-        <v>0.2000297192515054</v>
+        <v>0.2729564927611473</v>
       </c>
       <c r="P3">
-        <v>0.2000297192515054</v>
+        <v>0.2729564927611473</v>
       </c>
       <c r="Q3">
-        <v>3.090451681978222</v>
+        <v>2.928052731232889</v>
       </c>
       <c r="R3">
-        <v>27.814065137804</v>
+        <v>26.35247458109599</v>
       </c>
       <c r="S3">
-        <v>0.0008257512185830822</v>
+        <v>0.00185039132881883</v>
       </c>
       <c r="T3">
-        <v>0.0008257512185830822</v>
+        <v>0.00185039132881883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H4">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I4">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J4">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.295736333333332</v>
+        <v>3.901832333333334</v>
       </c>
       <c r="N4">
-        <v>24.887209</v>
+        <v>11.705497</v>
       </c>
       <c r="O4">
-        <v>0.346983122320513</v>
+        <v>0.2227003592201187</v>
       </c>
       <c r="P4">
-        <v>0.346983122320513</v>
+        <v>0.2227003592201188</v>
       </c>
       <c r="Q4">
-        <v>5.360876263817555</v>
+        <v>2.388946269292889</v>
       </c>
       <c r="R4">
-        <v>48.247886374358</v>
+        <v>21.500516423636</v>
       </c>
       <c r="S4">
-        <v>0.001432395831759735</v>
+        <v>0.001509701452627993</v>
       </c>
       <c r="T4">
-        <v>0.001432395831759735</v>
+        <v>0.001509701452627993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6462206666666667</v>
+        <v>0.6122626666666666</v>
       </c>
       <c r="H5">
-        <v>1.938662</v>
+        <v>1.836788</v>
       </c>
       <c r="I5">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="J5">
-        <v>0.004128142666364652</v>
+        <v>0.006779070576782467</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2410036666666667</v>
+        <v>0.5297876666666667</v>
       </c>
       <c r="N5">
-        <v>0.7230110000000001</v>
+        <v>1.589363</v>
       </c>
       <c r="O5">
-        <v>0.01008038363209295</v>
+        <v>0.03023807626717307</v>
       </c>
       <c r="P5">
-        <v>0.01008038363209296</v>
+        <v>0.03023807626717307</v>
       </c>
       <c r="Q5">
-        <v>0.1557415501424445</v>
+        <v>0.3243692095604444</v>
       </c>
       <c r="R5">
-        <v>1.401673951282</v>
+        <v>2.919322886044</v>
       </c>
       <c r="S5">
-        <v>4.161326176496681E-05</v>
+        <v>0.0002049860531212972</v>
       </c>
       <c r="T5">
-        <v>4.161326176496682E-05</v>
+        <v>0.0002049860531212972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.958761</v>
       </c>
       <c r="I6">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J6">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.58909666666667</v>
+        <v>8.306580666666667</v>
       </c>
       <c r="N6">
-        <v>31.76729</v>
+        <v>24.919742</v>
       </c>
       <c r="O6">
-        <v>0.4429067747958885</v>
+        <v>0.4741050717515609</v>
       </c>
       <c r="P6">
-        <v>0.4429067747958886</v>
+        <v>0.4741050717515609</v>
       </c>
       <c r="Q6">
-        <v>3.38413763641</v>
+        <v>2.654675195518</v>
       </c>
       <c r="R6">
-        <v>30.45723872769</v>
+        <v>23.892076759662</v>
       </c>
       <c r="S6">
-        <v>0.0009042224453513139</v>
+        <v>0.001677629610361767</v>
       </c>
       <c r="T6">
-        <v>0.000904222445351314</v>
+        <v>0.001677629610361767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.958761</v>
       </c>
       <c r="I7">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J7">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>14.347042</v>
       </c>
       <c r="O7">
-        <v>0.2000297192515054</v>
+        <v>0.2729564927611473</v>
       </c>
       <c r="P7">
-        <v>0.2000297192515054</v>
+        <v>0.2729564927611473</v>
       </c>
       <c r="Q7">
         <v>1.528376037218</v>
@@ -883,10 +883,10 @@
         <v>13.755384334962</v>
       </c>
       <c r="S7">
-        <v>0.0004083734369786659</v>
+        <v>0.000965861624101241</v>
       </c>
       <c r="T7">
-        <v>0.0004083734369786659</v>
+        <v>0.000965861624101241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.958761</v>
       </c>
       <c r="I8">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J8">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.295736333333332</v>
+        <v>3.901832333333334</v>
       </c>
       <c r="N8">
-        <v>24.887209</v>
+        <v>11.705497</v>
       </c>
       <c r="O8">
-        <v>0.346983122320513</v>
+        <v>0.2227003592201187</v>
       </c>
       <c r="P8">
-        <v>0.346983122320513</v>
+        <v>0.2227003592201188</v>
       </c>
       <c r="Q8">
-        <v>2.651209487561</v>
+        <v>1.246974889913</v>
       </c>
       <c r="R8">
-        <v>23.860885388049</v>
+        <v>11.222774009217</v>
       </c>
       <c r="S8">
-        <v>0.000708388187344568</v>
+        <v>0.0007880293612670963</v>
       </c>
       <c r="T8">
-        <v>0.0007083881873445681</v>
+        <v>0.0007880293612670964</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>0.958761</v>
       </c>
       <c r="I9">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="J9">
-        <v>0.002041563816150747</v>
+        <v>0.003538518590750013</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2410036666666667</v>
+        <v>0.5297876666666667</v>
       </c>
       <c r="N9">
-        <v>0.7230110000000001</v>
+        <v>1.589363</v>
       </c>
       <c r="O9">
-        <v>0.01008038363209295</v>
+        <v>0.03023807626717307</v>
       </c>
       <c r="P9">
-        <v>0.01008038363209296</v>
+        <v>0.03023807626717307</v>
       </c>
       <c r="Q9">
-        <v>0.07702163881900001</v>
+        <v>0.169313251027</v>
       </c>
       <c r="R9">
-        <v>0.693194749371</v>
+        <v>1.523819259243</v>
       </c>
       <c r="S9">
-        <v>2.057974647619922E-05</v>
+        <v>0.0001069979950199087</v>
       </c>
       <c r="T9">
-        <v>2.057974647619923E-05</v>
+        <v>0.0001069979950199087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H10">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I10">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J10">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.58909666666667</v>
+        <v>8.306580666666667</v>
       </c>
       <c r="N10">
-        <v>31.76729</v>
+        <v>24.919742</v>
       </c>
       <c r="O10">
-        <v>0.4429067747958885</v>
+        <v>0.4741050717515609</v>
       </c>
       <c r="P10">
-        <v>0.4429067747958886</v>
+        <v>0.4741050717515609</v>
       </c>
       <c r="Q10">
-        <v>28.56084446505444</v>
+        <v>0.9632061743646666</v>
       </c>
       <c r="R10">
-        <v>257.04760018549</v>
+        <v>8.668855569282</v>
       </c>
       <c r="S10">
-        <v>0.007631296181820318</v>
+        <v>0.0006087009068851968</v>
       </c>
       <c r="T10">
-        <v>0.007631296181820319</v>
+        <v>0.0006087009068851969</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H11">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I11">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J11">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.347042</v>
       </c>
       <c r="O11">
-        <v>0.2000297192515054</v>
+        <v>0.2729564927611473</v>
       </c>
       <c r="P11">
-        <v>0.2000297192515054</v>
+        <v>0.2729564927611473</v>
       </c>
       <c r="Q11">
-        <v>12.89891693926689</v>
+        <v>0.5545466497313333</v>
       </c>
       <c r="R11">
-        <v>116.090252453402</v>
+        <v>4.990919847581999</v>
       </c>
       <c r="S11">
-        <v>0.003446517686432042</v>
+        <v>0.0003504473471884263</v>
       </c>
       <c r="T11">
-        <v>0.003446517686432042</v>
+        <v>0.0003504473471884263</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H12">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I12">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J12">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.295736333333332</v>
+        <v>3.901832333333334</v>
       </c>
       <c r="N12">
-        <v>24.887209</v>
+        <v>11.705497</v>
       </c>
       <c r="O12">
-        <v>0.346983122320513</v>
+        <v>0.2227003592201187</v>
       </c>
       <c r="P12">
-        <v>0.346983122320513</v>
+        <v>0.2227003592201188</v>
       </c>
       <c r="Q12">
-        <v>22.37520749860322</v>
+        <v>0.4524447718763333</v>
       </c>
       <c r="R12">
-        <v>201.376867487429</v>
+        <v>4.072002946887</v>
       </c>
       <c r="S12">
-        <v>0.005978528952827397</v>
+        <v>0.0002859237723826334</v>
       </c>
       <c r="T12">
-        <v>0.005978528952827398</v>
+        <v>0.0002859237723826335</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.697193666666667</v>
+        <v>0.115957</v>
       </c>
       <c r="H13">
-        <v>8.091581</v>
+        <v>0.347871</v>
       </c>
       <c r="I13">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="J13">
-        <v>0.01723002811446532</v>
+        <v>0.001283894527085267</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2410036666666667</v>
+        <v>0.5297876666666667</v>
       </c>
       <c r="N13">
-        <v>0.7230110000000001</v>
+        <v>1.589363</v>
       </c>
       <c r="O13">
-        <v>0.01008038363209295</v>
+        <v>0.03023807626717307</v>
       </c>
       <c r="P13">
-        <v>0.01008038363209296</v>
+        <v>0.03023807626717307</v>
       </c>
       <c r="Q13">
-        <v>0.6500335633767779</v>
+        <v>0.06143258846366666</v>
       </c>
       <c r="R13">
-        <v>5.850302070391001</v>
+        <v>0.552893296173</v>
       </c>
       <c r="S13">
-        <v>0.0001736852933855576</v>
+        <v>3.88225006290104E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001736852933855576</v>
+        <v>3.882250062901042E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H14">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I14">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J14">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.58909666666667</v>
+        <v>8.306580666666667</v>
       </c>
       <c r="N14">
-        <v>31.76729</v>
+        <v>24.919742</v>
       </c>
       <c r="O14">
-        <v>0.4429067747958885</v>
+        <v>0.4741050717515609</v>
       </c>
       <c r="P14">
-        <v>0.4429067747958886</v>
+        <v>0.4741050717515609</v>
       </c>
       <c r="Q14">
-        <v>1618.832430185624</v>
+        <v>741.5185075985549</v>
       </c>
       <c r="R14">
-        <v>14569.49187167062</v>
+        <v>6673.666568386995</v>
       </c>
       <c r="S14">
-        <v>0.43254287381446</v>
+        <v>0.4686047494920995</v>
       </c>
       <c r="T14">
-        <v>0.43254287381446</v>
+        <v>0.4686047494920996</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H15">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I15">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J15">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>14.347042</v>
       </c>
       <c r="O15">
-        <v>0.2000297192515054</v>
+        <v>0.2729564927611473</v>
       </c>
       <c r="P15">
-        <v>0.2000297192515054</v>
+        <v>0.2729564927611473</v>
       </c>
       <c r="Q15">
-        <v>731.1123129116529</v>
+        <v>426.9144187886771</v>
       </c>
       <c r="R15">
-        <v>6580.010816204875</v>
+        <v>3842.229769098094</v>
       </c>
       <c r="S15">
-        <v>0.1953490769095116</v>
+        <v>0.2697897924610387</v>
       </c>
       <c r="T15">
-        <v>0.1953490769095116</v>
+        <v>0.2697897924610388</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H16">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I16">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J16">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.295736333333332</v>
+        <v>3.901832333333334</v>
       </c>
       <c r="N16">
-        <v>24.887209</v>
+        <v>11.705497</v>
       </c>
       <c r="O16">
-        <v>0.346983122320513</v>
+        <v>0.2227003592201187</v>
       </c>
       <c r="P16">
-        <v>0.346983122320513</v>
+        <v>0.2227003592201188</v>
       </c>
       <c r="Q16">
-        <v>1268.2297113165</v>
+        <v>348.3118993021421</v>
       </c>
       <c r="R16">
-        <v>11414.0674018485</v>
+        <v>3134.80709371928</v>
       </c>
       <c r="S16">
-        <v>0.3388638093485813</v>
+        <v>0.220116704633841</v>
       </c>
       <c r="T16">
-        <v>0.3388638093485813</v>
+        <v>0.2201167046338411</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.8772926666667</v>
+        <v>89.26880233333334</v>
       </c>
       <c r="H17">
-        <v>458.631878</v>
+        <v>267.806407</v>
       </c>
       <c r="I17">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053822</v>
       </c>
       <c r="J17">
-        <v>0.9766002654030193</v>
+        <v>0.9883985163053823</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2410036666666667</v>
+        <v>0.5297876666666667</v>
       </c>
       <c r="N17">
-        <v>0.7230110000000001</v>
+        <v>1.589363</v>
       </c>
       <c r="O17">
-        <v>0.01008038363209295</v>
+        <v>0.03023807626717307</v>
       </c>
       <c r="P17">
-        <v>0.01008038363209296</v>
+        <v>0.03023807626717307</v>
       </c>
       <c r="Q17">
-        <v>36.84398808273978</v>
+        <v>47.29351049430456</v>
       </c>
       <c r="R17">
-        <v>331.595892744658</v>
+        <v>425.6415944487411</v>
       </c>
       <c r="S17">
-        <v>0.009844505330466231</v>
+        <v>0.02988726971840286</v>
       </c>
       <c r="T17">
-        <v>0.009844505330466232</v>
+        <v>0.02988726971840286</v>
       </c>
     </row>
   </sheetData>
